--- a/Matrix module.xlsx
+++ b/Matrix module.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\03. DRIVE\01. WORK\FL\190228 PCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC94B1B-12B3-41C1-A860-3A68551CA674}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix Module" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
   <si>
     <t>BR ID</t>
   </si>
@@ -246,12 +247,15 @@
   </si>
   <si>
     <t>UC-24</t>
+  </si>
+  <si>
+    <t>Login sebagai Controlling</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,11 +334,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,11 +619,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -629,7 +633,7 @@
     <col min="3" max="3" width="5.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -655,14 +659,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -805,21 +809,21 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>54</v>
@@ -970,7 +974,7 @@
       <c r="E22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -978,7 +982,7 @@
       <c r="E23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -986,7 +990,7 @@
       <c r="E24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -994,19 +998,19 @@
       <c r="E25" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1024,7 +1028,7 @@
       <c r="E27" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1032,7 +1036,7 @@
       <c r="E28" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>71</v>
       </c>
     </row>
